--- a/data/form-games-sample.xlsx
+++ b/data/form-games-sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,52 +514,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Agronomia</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Ação;</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Console</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>FPS;</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -584,11 +584,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>Ação;RPG;Esportes;MMO;Aventura;FPS;</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -610,13 +610,13 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -649,17 +649,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Portáteis</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>MMO;Aventura;RPG;</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -667,60 +667,60 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Administração</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Interfere positivamente</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>As vezes</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Console</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;Esportes;</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Engenharia de Software</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Interfere positivamente</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -746,11 +746,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -759,51 +759,51 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>As vezes</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>FPS;MMO;RPG;Ação;Aventura;</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;FPS;</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -812,29 +812,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>As vezes</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Esportes;</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -852,32 +852,32 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Negativamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -887,68 +887,68 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>MMO;FPS;</t>
+          <t>RPG;FPS;Ação;Aventura;Esportes;MMO;</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fisioterapia</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Muito negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Interfere muito negativamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>RPG;MMO;</t>
+          <t>Jogos de lógica;</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -966,46 +966,46 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Publicidade e Propaganda</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Interfere muito negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MMO;</t>
+          <t>RPG;Aventura;</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1023,46 +1023,46 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Arquitetura e Urbanismo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Aventura;Ação;RPG;</t>
+          <t>RPG;</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1080,11 +1080,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arquitetura e Urbanismo</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1092,44 +1092,44 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1172,21 +1172,21 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;FPS;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1194,19 +1194,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1229,33 +1229,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>RPG;Aventura;MOBA;</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;FPS;Esportes;</t>
+          <t>FPS;MMO;Esportes;RPG;Aventura;Ação;</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1294,13 +1294,13 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Negativamente</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Ação;</t>
+          <t>Ação;Aventura;RPG;FPS;</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1357,23 +1357,23 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Direito</t>
+          <t>Medicina Veterinária</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1382,25 +1382,25 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Ação;Aventura;Esportes;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1408,29 +1408,29 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Esportes;</t>
+          <t>FPS;</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1479,15 +1479,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1496,29 +1496,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Console</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MMO;RPG;</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1528,11 +1528,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1540,24 +1540,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Portáteis</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>MMO;Aventura;RPG;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1585,81 +1585,81 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ciências Contábeis</t>
+          <t>Ciências Biológicas</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>As vezes</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Aventura;</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Console</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Ação;RPG;Esportes;Aventura;FPS;MMO;</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>45</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>24</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Administração</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>29</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Engenharia de Software</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>7</v>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Positivamente</t>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Interfere muito positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>RPG;MMO;FPS;</t>
+          <t>MMO;RPG;</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1699,80 +1699,80 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Muito positivamente</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Interfere negativamente</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>6</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>RPG;MMO;FPS;Esportes;Ação;Aventura;</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1781,29 +1781,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Aventura;</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>FPS;</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1821,15 +1821,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arquitetura e Urbanismo</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1842,11 +1842,11 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1864,13 +1864,13 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1878,28 +1878,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Fisioterapia</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito negativamente</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere muito negativamente</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>RPG;MMO;Aventura;Ação;</t>
+          <t>RPG;MMO;</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1935,42 +1935,42 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Direito</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Esportes;</t>
+          <t>RPG;MMO;FPS;</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Aventura;</t>
+          <t>Esportes;</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2035,25 +2035,25 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Publicidade e Propaganda</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -2061,16 +2061,16 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere muito negativamente</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Aventura;Ação;</t>
+          <t>MMO;</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2110,24 +2110,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2141,21 +2141,21 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>RPG;Aventura;MOBA;</t>
+          <t>Ação;RPG;Aventura;FPS;</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2163,29 +2163,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ciências Biológicas</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>6</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>As vezes</t>
@@ -2193,26 +2193,26 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Aventura;</t>
+          <t>Ação;Aventura;Esportes;</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2232,34 +2232,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;Esportes;FPS;</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
         <v>4</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Soulslike ;RPG;FPS;Aventura;Ação;</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>7</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2269,19 +2269,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2289,20 +2289,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Interfere muito positivamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2312,21 +2312,21 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>RPG;Ação;Aventura;FPS;MMO;</t>
+          <t>RPG;</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2338,52 +2338,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Interfere muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Ação;FPS;RPG;Aventura;MMO;</t>
+          <t>Ação;Aventura;RPG;FPS;MMO;</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2391,29 +2391,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Muito positivamente</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Interfere negativamente</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2426,21 +2426,21 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>FPS;Aventura;Ação;MMO;</t>
+          <t>Aventura;Ação;RPG;</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2456,24 +2456,24 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Negativamente</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2483,21 +2483,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Ação;RPG;Esportes;MMO;Aventura;FPS;</t>
+          <t>MMO;FPS;</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2505,85 +2505,85 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>FPS;MMO;RPG;Ação;Aventura;</t>
+          <t>Esportes;</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Interfere muito positivamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2597,21 +2597,21 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>MMO;</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Publicidade e Propaganda</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2636,15 +2636,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2654,21 +2654,21 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Ação;Aventura;</t>
+          <t>RPG;MMO;FPS;Esportes;Ação;Aventura;</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2680,33 +2680,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2737,15 +2737,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Ciências Contábeis</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2754,25 +2754,25 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Console</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Ação;RPG;Esportes;Aventura;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
         <v>4</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>As vezes</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2782,27 +2782,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>55</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Engenharia Civil</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>10</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>20</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Engenharia de Software</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>FPS;MMO;Esportes;RPG;Aventura;Ação;</t>
+          <t>Aventura;Ação;</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2833,13 +2833,13 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2847,56 +2847,56 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>6</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;FPS;MMO;</t>
+          <t>RPG;Aventura;Ação;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2904,81 +2904,81 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Interfere muito positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Ação;RPG;Aventura;FPS;</t>
+          <t>Aventura;Esportes;</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2986,17 +2986,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Jogos de lógica;</t>
+          <t>Ação;Aventura;Esportes;FPS;</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3010,7 +3010,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3018,19 +3018,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -3053,41 +3053,41 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Ação;Aventura;Esportes;FPS;</t>
+          <t>FPS;Aventura;Ação;MMO;</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3096,35 +3096,35 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Ação;Cartas;</t>
+          <t>FPS;</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3132,15 +3132,15 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Medicina Veterinária</t>
+          <t>Agronomia</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3149,11 +3149,11 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>FPS;</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3189,11 +3189,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Nutrição</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -3206,11 +3206,11 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3219,26 +3219,26 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>RPG;Aventura;Ação;Esportes;FPS;MMO;</t>
+          <t>RPG;MMO;Aventura;Ação;</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3250,24 +3250,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ciências Contábeis</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3276,42 +3276,42 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Portáteis</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Escape;</t>
+          <t>RPG;</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3324,27 +3324,141 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>RPG;Ação;Aventura;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Análise e Desenvolvimento de Sistemas</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Muito positivamente</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Interfere positivamente</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Console</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Ação;FPS;RPG;Aventura;MMO;</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>19</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Análise e Desenvolvimento de Sistemas</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Interfere negativamente</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>As vezes</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Console</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;FPS;Esportes;</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>Às vezes</t>
         </is>

--- a/data/form-games-sample.xlsx
+++ b/data/form-games-sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -522,12 +522,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -540,16 +540,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Portáteis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Ação;</t>
+          <t>MMO;Aventura;RPG;</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -602,21 +602,21 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Ação;RPG;Esportes;MMO;Aventura;FPS;</t>
+          <t>Ação;Aventura;RPG;FPS;MMO;</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,19 +624,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Fisioterapia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito negativamente</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -654,16 +654,16 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Portáteis</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>MMO;Aventura;RPG;</t>
+          <t>RPG;MMO;</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -673,50 +673,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;</t>
+          <t>Aventura;Ação;</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -730,11 +730,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -742,20 +742,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -763,51 +763,51 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>FPS;MMO;RPG;Ação;Aventura;</t>
+          <t>Aventura;</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Agronomia</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -816,35 +816,35 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Esportes;</t>
+          <t>FPS;</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -852,15 +852,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -869,15 +869,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -887,64 +887,64 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>RPG;FPS;Ação;Aventura;Esportes;MMO;</t>
+          <t>RPG;Aventura;</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Jogos de lógica;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -958,7 +958,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -966,11 +966,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Arquitetura e Urbanismo</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -978,16 +978,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>RPG;Aventura;</t>
+          <t>RPG;</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1009,13 +1009,13 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1027,15 +1027,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arquitetura e Urbanismo</t>
+          <t>Nutrição</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>RPG;MMO;Aventura;Ação;</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1080,19 +1080,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1101,35 +1101,35 @@
         </is>
       </c>
       <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Ação;</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1137,28 +1137,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Ciências Contábeis</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1167,30 +1167,30 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>Ação;RPG;Esportes;Aventura;FPS;MMO;</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1198,15 +1198,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Publicidade e Propaganda</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1215,25 +1215,25 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>RPG;Aventura;MOBA;</t>
+          <t>Ação;Aventura;</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1259,38 +1259,38 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Interfere negativamente</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;Esportes;FPS;</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Muito positivamente</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Interfere negativamente</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>FPS;MMO;Esportes;RPG;Aventura;Ação;</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1300,54 +1300,54 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Engenharia Civil</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Ação;Cartas;</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;FPS;</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1365,19 +1365,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Medicina Veterinária</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1400,29 +1400,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>Ação;RPG;Aventura;FPS;</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1457,21 +1457,21 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>FPS;</t>
+          <t>RPG;Ação;Aventura;FPS;MMO;</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1483,33 +1483,33 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Farmácia</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1528,27 +1528,27 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1571,33 +1571,33 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>MMO;</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ciências Biológicas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1605,20 +1605,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1628,37 +1628,37 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Aventura;</t>
+          <t>Ação;Aventura;Esportes;FPS;</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1667,29 +1667,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>As vezes</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;Esportes;</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MMO;RPG;</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1699,84 +1699,84 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RPG;MMO;FPS;Esportes;Ação;Aventura;</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Negativamente</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1785,35 +1785,35 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Aventura;</t>
+          <t>MMO;FPS;</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1821,15 +1821,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1851,26 +1851,26 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;</t>
+          <t>Esportes;</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1878,28 +1878,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fisioterapia</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Muito negativamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Interfere muito negativamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>RPG;MMO;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1921,13 +1921,13 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1943,16 +1943,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1970,11 +1970,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>RPG;MMO;FPS;</t>
+          <t>FPS;MMO;Esportes;RPG;Aventura;Ação;</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Ciências Contábeis</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Portáteis</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Esportes;</t>
+          <t>Escape;</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2041,7 +2041,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2049,28 +2049,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Publicidade e Propaganda</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Interfere muito negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2079,26 +2079,26 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>MMO;</t>
+          <t>Soulslike ;RPG;FPS;Aventura;Ação;</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2110,24 +2110,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2141,25 +2141,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Ação;RPG;Aventura;FPS;</t>
+          <t>RPG;Aventura;MOBA;</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2167,42 +2167,42 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Direito</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Muito positivamente</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Interfere positivamente</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Ação;Aventura;Esportes;</t>
+          <t>Ação;FPS;RPG;Aventura;MMO;</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2237,39 +2237,39 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Computador</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;Esportes;FPS;</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>4</v>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2307,26 +2307,26 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>Aventura;Esportes;</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2334,32 +2334,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2369,21 +2369,21 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;FPS;MMO;</t>
+          <t>RPG;FPS;Ação;Aventura;Esportes;MMO;</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2391,29 +2391,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Positivamente</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Indiferente</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>6</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2421,26 +2421,26 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Aventura;Ação;RPG;</t>
+          <t>RPG;Aventura;Ação;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2456,11 +2456,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Negativamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2483,11 +2483,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>MMO;FPS;</t>
+          <t>FPS;</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2509,15 +2509,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Direito</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Esportes;</t>
+          <t>Aventura;Ação;RPG;</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2554,40 +2554,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Ciências Biológicas</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>MMO;</t>
+          <t>Aventura;</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2605,70 +2605,70 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Muito positivamente</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Interfere negativamente</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Computador</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
         <v>6</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Indiferente</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>RPG;MMO;FPS;Esportes;Ação;Aventura;</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>2</v>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2676,15 +2676,15 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Farmácia</t>
+          <t>Engenharia Mecânica</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2693,64 +2693,64 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>As vezes</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ciências Contábeis</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2763,16 +2763,16 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Ação;RPG;Esportes;Aventura;FPS;MMO;</t>
+          <t>RPG;</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2790,15 +2790,15 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Engenharia Civil</t>
+          <t>Análise e Desenvolvimento de Sistemas</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2811,21 +2811,21 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Aventura;Ação;</t>
+          <t>Ação;Aventura;RPG;FPS;Esportes;</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -2839,7 +2839,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2847,28 +2847,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Administração</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Negativamente</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2877,26 +2877,26 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>RPG;Aventura;Ação;Esportes;FPS;MMO;</t>
+          <t>Ação;Aventura;RPG;FPS;</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Interfere positivamente</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2934,12 +2934,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Console</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Aventura;Esportes;</t>
+          <t>Ação;Aventura;RPG;Esportes;</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2947,13 +2947,13 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2961,24 +2961,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Interfere positivamente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Ação;Aventura;Esportes;FPS;</t>
+          <t>MMO;RPG;</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3010,15 +3010,15 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3026,11 +3026,11 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3039,43 +3039,43 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>FPS;Aventura;Ação;MMO;</t>
+          <t>Jogos de lógica;</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3105,12 +3105,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>FPS;</t>
+          <t>Esportes;</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3118,13 +3118,13 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3132,28 +3132,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Agronomia</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Interfere negativamente</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Às vezes</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nutrição</t>
+          <t>Administração</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Positivamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Interfere negativamente</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3219,34 +3219,34 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Computador</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>RPG;MMO;Aventura;Ação;</t>
+          <t>Esportes;</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3254,11 +3254,11 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Muito positivamente</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3276,46 +3276,46 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>RPG;</t>
+          <t>FPS;Aventura;Ação;MMO;</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Engenharia de Software</t>
+          <t>Medicina Veterinária</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3338,21 +3338,21 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>RPG;Ação;Aventura;FPS;MMO;</t>
+          <t>Ação;Aventura;RPG;Esportes;FPS;MMO;</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Às vezes</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3360,19 +3360,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
+          <t>Engenharia de Software</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Muito positivamente</t>
+          <t>Positivamente</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3381,21 +3381,21 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>As vezes</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Console</t>
+          <t>Computador</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Ação;FPS;RPG;Aventura;MMO;</t>
+          <t>RPG;MMO;FPS;</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -3404,63 +3404,6 @@
       <c r="M52" t="inlineStr">
         <is>
           <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>9</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>19</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Análise e Desenvolvimento de Sistemas</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Positivamente</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Interfere negativamente</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>As vezes</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Ação;Aventura;RPG;FPS;Esportes;</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>2</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Às vezes</t>
         </is>
       </c>
     </row>
